--- a/Data/Temp/Stats_Summary_1.xlsx
+++ b/Data/Temp/Stats_Summary_1.xlsx
@@ -10,7 +10,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Summary" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Player List" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Summary_Alexander Hleb" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Summary_redbull njr" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Summary_HOME" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -451,7 +451,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>redbull njr</t>
+          <t>HOME</t>
         </is>
       </c>
     </row>
@@ -474,7 +474,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>92</v>
+        <v>77</v>
       </c>
     </row>
     <row r="5">
@@ -548,7 +548,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>ST</t>
+          <t>RW</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -574,35 +574,35 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>B. Charlton</t>
+          <t>Z. Shen</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>10</v>
+        <v>7.6</v>
       </c>
       <c r="D3" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>RW</t>
+          <t>ST</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>N. Ono</t>
+          <t>A. Ji</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>7.2</v>
+        <v>9.300000000000001</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E4" t="n">
         <v>1</v>
@@ -616,14 +616,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>A. Banks</t>
+          <t>E. Chang</t>
         </is>
       </c>
       <c r="C5" t="n">
         <v>10</v>
       </c>
       <c r="D5" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E5" t="n">
         <v>1</v>
@@ -637,11 +637,11 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>O. Gillet</t>
+          <t>T. Morel</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>6.8</v>
+        <v>7.6</v>
       </c>
       <c r="D6" t="n">
         <v>0</v>
@@ -658,7 +658,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>C. Bernard</t>
+          <t>K. Kowalczyk</t>
         </is>
       </c>
       <c r="C7" t="n">
@@ -668,7 +668,7 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8">
@@ -679,11 +679,11 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>s. karl</t>
+          <t>E. Monteiro</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>6.4</v>
+        <v>7</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -700,11 +700,11 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>I. Lanzini</t>
+          <t>C. Hassan</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>7.3</v>
+        <v>7.4</v>
       </c>
       <c r="D9" t="n">
         <v>0</v>
@@ -721,11 +721,11 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>P. Hansen</t>
+          <t>O. John</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>8</v>
+        <v>7.4</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
@@ -742,11 +742,11 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>S. Ribeiro</t>
+          <t>Y. Clerc</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>7.1</v>
+        <v>6.4</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
@@ -763,11 +763,11 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>M. Lund</t>
+          <t>J. Al Shahrani</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>4</v>
+        <v>7.1</v>
       </c>
       <c r="D12" t="n">
         <v>0</v>
@@ -834,7 +834,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5">
@@ -844,7 +844,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>80</v>
+        <v>50</v>
       </c>
     </row>
     <row r="6">
@@ -854,7 +854,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>30</v>
+        <v>23</v>
       </c>
     </row>
     <row r="7">
@@ -864,7 +864,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>87</v>
+        <v>83</v>
       </c>
     </row>
     <row r="8">
@@ -874,7 +874,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>21</v>
+        <v>28</v>
       </c>
     </row>
     <row r="9">
@@ -884,7 +884,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>90</v>
+        <v>79</v>
       </c>
     </row>
     <row r="10">
@@ -894,7 +894,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="11">
@@ -904,7 +904,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>20</v>
+        <v>100</v>
       </c>
     </row>
     <row r="12">
@@ -914,7 +914,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="13">
@@ -934,7 +934,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="15">
@@ -944,7 +944,7 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>7</v>
+        <v>12</v>
       </c>
     </row>
     <row r="16">
@@ -964,7 +964,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>17.6</v>
+        <v>16.8</v>
       </c>
     </row>
     <row r="18">
@@ -974,7 +974,7 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>11</v>
+        <v>7.9</v>
       </c>
     </row>
   </sheetData>
@@ -1015,7 +1015,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3">
@@ -1025,7 +1025,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4">
@@ -1035,7 +1035,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>17</v>
+        <v>14</v>
       </c>
     </row>
     <row r="5">
@@ -1045,7 +1045,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>71</v>
+        <v>57</v>
       </c>
     </row>
     <row r="6">
@@ -1055,7 +1055,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>164</v>
+        <v>122</v>
       </c>
     </row>
     <row r="7">
@@ -1065,7 +1065,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>85</v>
+        <v>89</v>
       </c>
     </row>
     <row r="8">
@@ -1075,7 +1075,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>128</v>
+        <v>104</v>
       </c>
     </row>
     <row r="9">
@@ -1085,7 +1085,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>93</v>
+        <v>90</v>
       </c>
     </row>
     <row r="10">
@@ -1095,7 +1095,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>35</v>
+        <v>6</v>
       </c>
     </row>
     <row r="11">
@@ -1105,7 +1105,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>17</v>
+        <v>83</v>
       </c>
     </row>
     <row r="12">
@@ -1115,7 +1115,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="13">
@@ -1135,7 +1135,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>30</v>
+        <v>26</v>
       </c>
     </row>
     <row r="15">
@@ -1145,7 +1145,7 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>28</v>
+        <v>20</v>
       </c>
     </row>
     <row r="16">
@@ -1165,7 +1165,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>12.9</v>
+        <v>12.1</v>
       </c>
     </row>
     <row r="18">
@@ -1175,7 +1175,7 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>5.7</v>
+        <v>4.7</v>
       </c>
     </row>
   </sheetData>
